--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672CE267-F58F-490F-B0E3-F3604044B1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9971720F-B274-4226-9467-A275680631AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5655" yWindow="2205" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>텔레포트 카운트 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경험치 획득 + 100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,43 +190,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
+    <t>10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,5,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +613,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -652,10 +664,10 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -664,7 +676,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -678,10 +690,10 @@
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -690,7 +702,7 @@
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -704,10 +716,10 @@
         <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -716,7 +728,7 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -730,7 +742,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>52</v>
@@ -742,7 +754,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -756,10 +768,10 @@
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -768,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -782,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -794,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -808,19 +820,19 @@
         <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -834,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>52</v>
@@ -846,7 +858,7 @@
         <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9971720F-B274-4226-9467-A275680631AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A8C45-81B3-415F-A3FF-572E80799E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2205" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -687,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>43</v>
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>44</v>
@@ -739,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>500000</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>45</v>
@@ -765,7 +765,7 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>500000</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>46</v>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>47</v>
@@ -817,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
@@ -843,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>5000000</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A8C45-81B3-415F-A3FF-572E80799E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA968263-0EC7-4B3F-9614-E7017956A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA968263-0EC7-4B3F-9614-E7017956A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBC088-BA3D-4F2E-8DD2-2E8FFA6A5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,59 +190,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,5,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,11</t>
+    <t>5,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,11,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1500,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1000,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,3000,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,5,3000,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5000,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,10000,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5000,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +621,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,10 +672,10 @@
         <v>50000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -676,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -690,10 +698,10 @@
         <v>100000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -716,10 +724,10 @@
         <v>100000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -742,10 +750,10 @@
         <v>500000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -768,10 +776,10 @@
         <v>500000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -794,10 +802,10 @@
         <v>1000000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -820,10 +828,10 @@
         <v>1000000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -846,10 +854,10 @@
         <v>5000000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>2</v>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBC088-BA3D-4F2E-8DD2-2E8FFA6A5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7816B7F3-F733-4271-937A-E486C586FE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4605" yWindow="2760" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,14 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험의 구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐욕의 구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수호의 구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,115 +134,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>힘의 구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>awakeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간의 구슬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치 획득 + 100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 드랍아이템 +100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피해감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크리확률+크리데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿨타임감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 타격수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문의 구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>isLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장의 구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 타격수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이동속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,11,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1500,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1000,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,3000,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,5,3000,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,5000,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,10000,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5000,10</t>
+    <t>경험치 획득 + 150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -633,9 +605,11 @@
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,16 +626,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -669,13 +649,13 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -684,10 +664,16 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -695,25 +681,31 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -721,13 +713,13 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -736,10 +728,16 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -747,25 +745,31 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -773,25 +777,31 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -802,22 +812,25 @@
         <v>1000000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -828,22 +841,25 @@
         <v>1000000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
       <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -854,19 +870,23 @@
         <v>5000000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7816B7F3-F733-4271-937A-E486C586FE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F3416-3A92-4ECC-9A5E-5F3383214644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2760" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -214,15 +214,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +593,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -716,10 +716,10 @@
         <v>500000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>2</v>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8F3416-3A92-4ECC-9A5E-5F3383214644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855B48E-115B-470D-826C-21CF666D53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치 획득 + 150%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,50 @@
   </si>
   <si>
     <t>2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중의 구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐욕의 구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득 + 200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득 + 400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(스테이지 일반요괴 제외 전부 적용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,7 +649,7 @@
     <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,8 +680,11 @@
       <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -652,10 +695,10 @@
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -673,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -684,10 +727,10 @@
         <v>300000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -696,7 +739,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -705,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -716,10 +759,10 @@
         <v>500000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -737,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -769,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -801,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -809,28 +852,34 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -838,28 +887,31 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855B48E-115B-470D-826C-21CF666D53DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB0177-AACD-426D-840B-913BDCD9753B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1755" yWindow="4455" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +255,18 @@
   </si>
   <si>
     <t>(스테이지 일반요괴 제외 전부 적용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +637,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,10 +682,10 @@
         <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -695,19 +699,19 @@
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -727,19 +731,19 @@
         <v>300000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -759,19 +763,19 @@
         <v>500000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -791,13 +795,13 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -823,19 +827,19 @@
         <v>1500000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -855,19 +859,19 @@
         <v>5000000</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
         <v>51</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -876,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -890,19 +894,19 @@
         <v>5000000</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -922,20 +926,22 @@
         <v>5000000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>4</v>

--- a/Assets/06.Table/MarbleTable.xlsx
+++ b/Assets/06.Table/MarbleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB0177-AACD-426D-840B-913BDCD9753B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C43525-E7D8-44F2-A032-09054738A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="4455" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MarbleTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문의 구슬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미공개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술 타격수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스 데미지 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경험치 획득 + 200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,23 +226,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>골드 획득 + 400%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(스테이지 일반요괴 제외 전부 적용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <t>만능의 구슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도4 공증500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득 + 200% 공증1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 타격수 증가1 피감 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해감소 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 타격수 증가 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 데미지 증가 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득 + 400% 타격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격1+댐감1+경치100+골드100+보댐10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,17,10,9,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.1,1,1,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0.1,2,2,0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +669,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,7 +681,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="48.875" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,13 +711,13 @@
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -699,19 +731,19 @@
         <v>100000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -731,16 +763,16 @@
         <v>300000</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>55</v>
@@ -763,19 +795,19 @@
         <v>500000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -795,19 +827,19 @@
         <v>1000000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -827,19 +859,19 @@
         <v>1500000</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -859,19 +891,19 @@
         <v>5000000</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -880,7 +912,7 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -894,19 +926,19 @@
         <v>5000000</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -926,19 +958,19 @@
         <v>5000000</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
